--- a/docs/CareConnect-InspiredOxygen-Observation-1.xlsx
+++ b/docs/CareConnect-InspiredOxygen-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="576">
   <si>
     <t>Path</t>
   </si>
@@ -740,6 +740,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -5314,10 +5320,10 @@
         <v>232</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5392,7 +5398,7 @@
         <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5403,7 +5409,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5429,23 +5435,23 @@
         <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5487,7 +5493,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5508,10 +5514,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5522,7 +5528,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5548,13 +5554,13 @@
         <v>120</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5604,7 +5610,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5625,10 +5631,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5639,7 +5645,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5665,14 +5671,14 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5721,7 +5727,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5742,10 +5748,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5756,7 +5762,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5782,14 +5788,14 @@
         <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5838,7 +5844,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5859,10 +5865,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5873,7 +5879,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5896,19 +5902,19 @@
         <v>57</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5957,7 +5963,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5978,10 +5984,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5992,7 +5998,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6018,16 +6024,16 @@
         <v>120</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -6076,7 +6082,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6097,10 +6103,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -6111,11 +6117,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6137,14 +6143,14 @@
         <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -6172,10 +6178,10 @@
         <v>136</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -6193,7 +6199,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>56</v>
@@ -6208,27 +6214,27 @@
         <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6343,7 +6349,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6460,7 +6466,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6579,7 +6585,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6694,7 +6700,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6811,7 +6817,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6837,23 +6843,23 @@
         <v>69</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>45</v>
@@ -6895,7 +6901,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6916,10 +6922,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6930,7 +6936,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6956,13 +6962,13 @@
         <v>120</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7012,7 +7018,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7033,10 +7039,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -7047,7 +7053,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7073,14 +7079,14 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7129,7 +7135,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7150,10 +7156,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -7164,7 +7170,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7190,14 +7196,14 @@
         <v>120</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7246,7 +7252,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7267,10 +7273,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7281,7 +7287,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7304,19 +7310,19 @@
         <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7365,7 +7371,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7386,10 +7392,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7400,7 +7406,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7426,16 +7432,16 @@
         <v>120</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7484,7 +7490,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7505,10 +7511,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7519,7 +7525,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7542,19 +7548,19 @@
         <v>57</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7603,7 +7609,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7618,19 +7624,19 @@
         <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7638,11 +7644,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7661,19 +7667,19 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7722,7 +7728,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7737,19 +7743,19 @@
         <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7757,11 +7763,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7780,19 +7786,19 @@
         <v>57</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7841,7 +7847,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7856,19 +7862,19 @@
         <v>45</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
@@ -7876,7 +7882,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7899,16 +7905,16 @@
         <v>57</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7958,7 +7964,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7979,13 +7985,13 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -7993,7 +7999,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8016,17 +8022,17 @@
         <v>57</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8075,7 +8081,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8090,19 +8096,19 @@
         <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>45</v>
@@ -8110,7 +8116,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8133,19 +8139,19 @@
         <v>57</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -8194,7 +8200,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8203,33 +8209,33 @@
         <v>56</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8255,16 +8261,16 @@
         <v>142</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8292,10 +8298,10 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8313,7 +8319,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8322,13 +8328,13 @@
         <v>56</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>45</v>
@@ -8337,7 +8343,7 @@
         <v>99</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8348,11 +8354,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8374,14 +8380,14 @@
         <v>142</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8409,10 +8415,10 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8430,7 +8436,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8448,24 +8454,24 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8491,14 +8497,14 @@
         <v>120</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8547,7 +8553,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8562,16 +8568,16 @@
         <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8582,7 +8588,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8608,13 +8614,13 @@
         <v>142</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8640,13 +8646,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8664,7 +8670,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8682,24 +8688,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8814,7 +8820,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8931,7 +8937,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9003,7 +9009,7 @@
         <v>45</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
@@ -9048,7 +9054,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>226</v>
@@ -9113,10 +9119,10 @@
         <v>209</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -9169,7 +9175,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9284,7 +9290,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9399,7 +9405,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>231</v>
@@ -9427,10 +9433,10 @@
         <v>232</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9505,7 +9511,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9516,7 +9522,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9542,23 +9548,23 @@
         <v>69</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>45</v>
@@ -9600,7 +9606,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9621,10 +9627,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9635,7 +9641,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9661,13 +9667,13 @@
         <v>120</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9717,7 +9723,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9738,10 +9744,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9752,7 +9758,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9778,14 +9784,14 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9834,7 +9840,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9855,10 +9861,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9869,7 +9875,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9895,14 +9901,14 @@
         <v>120</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9951,7 +9957,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9972,10 +9978,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9986,7 +9992,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10009,19 +10015,19 @@
         <v>57</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -10070,7 +10076,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10091,10 +10097,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10105,7 +10111,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10131,16 +10137,16 @@
         <v>120</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10189,7 +10195,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10210,10 +10216,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10224,7 +10230,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10250,16 +10256,16 @@
         <v>142</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10284,13 +10290,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10308,7 +10314,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10329,10 +10335,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10343,7 +10349,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10458,7 +10464,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10575,7 +10581,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10647,7 +10653,7 @@
         <v>45</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AB74" s="2"/>
       <c r="AC74" t="s" s="2">
@@ -10692,7 +10698,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>226</v>
@@ -10757,10 +10763,10 @@
         <v>209</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10813,7 +10819,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10928,7 +10934,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11043,7 +11049,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>231</v>
@@ -11071,10 +11077,10 @@
         <v>232</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11149,7 +11155,7 @@
         <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11160,7 +11166,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11186,23 +11192,23 @@
         <v>69</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>45</v>
@@ -11244,7 +11250,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11265,10 +11271,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11279,7 +11285,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11305,13 +11311,13 @@
         <v>120</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11361,7 +11367,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11382,10 +11388,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11396,7 +11402,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11422,14 +11428,14 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11478,7 +11484,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11499,10 +11505,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11513,7 +11519,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11539,14 +11545,14 @@
         <v>120</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11595,7 +11601,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11616,10 +11622,10 @@
         <v>45</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11630,7 +11636,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11653,19 +11659,19 @@
         <v>57</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11714,7 +11720,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11735,10 +11741,10 @@
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11749,7 +11755,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11775,16 +11781,16 @@
         <v>120</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11833,7 +11839,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11854,10 +11860,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11868,7 +11874,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11891,16 +11897,16 @@
         <v>45</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11950,7 +11956,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -11968,24 +11974,24 @@
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12008,16 +12014,16 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12067,7 +12073,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -12085,24 +12091,24 @@
         <v>45</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12125,19 +12131,19 @@
         <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -12186,7 +12192,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12198,7 +12204,7 @@
         <v>45</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>45</v>
@@ -12207,10 +12213,10 @@
         <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -12221,7 +12227,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12336,7 +12342,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12453,11 +12459,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12482,7 +12488,7 @@
         <v>108</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>105</v>
@@ -12535,7 +12541,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -12570,7 +12576,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12593,13 +12599,13 @@
         <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12650,7 +12656,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -12659,7 +12665,7 @@
         <v>56</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>45</v>
@@ -12671,10 +12677,10 @@
         <v>45</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -12685,7 +12691,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12708,13 +12714,13 @@
         <v>45</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12765,31 +12771,31 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AF92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="AM92" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -12800,7 +12806,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12826,16 +12832,16 @@
         <v>142</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>45</v>
@@ -12863,10 +12869,10 @@
         <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>45</v>
@@ -12884,7 +12890,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -12902,13 +12908,13 @@
         <v>45</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -12919,7 +12925,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12945,16 +12951,16 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>45</v>
@@ -12979,13 +12985,13 @@
         <v>45</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -13003,7 +13009,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -13021,13 +13027,13 @@
         <v>45</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -13038,7 +13044,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13061,17 +13067,17 @@
         <v>45</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -13120,7 +13126,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13144,7 +13150,7 @@
         <v>45</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -13155,7 +13161,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13181,10 +13187,10 @@
         <v>120</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13235,7 +13241,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13256,10 +13262,10 @@
         <v>45</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -13270,7 +13276,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13293,19 +13299,19 @@
         <v>57</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>45</v>
@@ -13354,7 +13360,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13366,7 +13372,7 @@
         <v>45</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>45</v>
@@ -13375,10 +13381,10 @@
         <v>45</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -13389,7 +13395,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13504,7 +13510,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13621,11 +13627,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13650,7 +13656,7 @@
         <v>108</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>105</v>
@@ -13703,7 +13709,7 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
@@ -13738,7 +13744,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13764,16 +13770,16 @@
         <v>75</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>45</v>
@@ -13801,10 +13807,10 @@
         <v>136</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>45</v>
@@ -13822,7 +13828,7 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
@@ -13846,7 +13852,7 @@
         <v>99</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
@@ -13857,7 +13863,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13880,13 +13886,13 @@
         <v>45</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13937,7 +13943,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>56</v>
@@ -13961,7 +13967,7 @@
         <v>45</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -13972,7 +13978,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13995,19 +14001,19 @@
         <v>57</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>45</v>
@@ -14056,7 +14062,7 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
@@ -14068,7 +14074,7 @@
         <v>45</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>45</v>
@@ -14077,10 +14083,10 @@
         <v>45</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
@@ -14091,7 +14097,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14206,7 +14212,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14323,11 +14329,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14352,7 +14358,7 @@
         <v>108</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>105</v>
@@ -14405,7 +14411,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14440,7 +14446,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14466,14 +14472,14 @@
         <v>142</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>45</v>
@@ -14498,13 +14504,13 @@
         <v>45</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>45</v>
@@ -14522,7 +14528,7 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>56</v>
@@ -14540,16 +14546,16 @@
         <v>45</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>45</v>
@@ -14557,7 +14563,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14672,7 +14678,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14789,7 +14795,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14906,7 +14912,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>226</v>
@@ -14971,10 +14977,10 @@
         <v>79</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>45</v>
@@ -15027,7 +15033,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15142,7 +15148,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15257,7 +15263,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>231</v>
@@ -15285,10 +15291,10 @@
         <v>232</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15363,7 +15369,7 @@
         <v>45</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
@@ -15374,7 +15380,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15400,23 +15406,23 @@
         <v>69</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R115" t="s" s="2">
         <v>45</v>
@@ -15458,7 +15464,7 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -15479,10 +15485,10 @@
         <v>45</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>45</v>
@@ -15493,7 +15499,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15519,13 +15525,13 @@
         <v>120</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15575,7 +15581,7 @@
         <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
@@ -15596,10 +15602,10 @@
         <v>45</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>45</v>
@@ -15610,7 +15616,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15636,14 +15642,14 @@
         <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>45</v>
@@ -15692,7 +15698,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -15713,10 +15719,10 @@
         <v>45</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>45</v>
@@ -15727,7 +15733,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15753,14 +15759,14 @@
         <v>120</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>45</v>
@@ -15809,7 +15815,7 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
@@ -15830,10 +15836,10 @@
         <v>45</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -15844,7 +15850,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15867,19 +15873,19 @@
         <v>57</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>45</v>
@@ -15928,7 +15934,7 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
@@ -15949,10 +15955,10 @@
         <v>45</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
@@ -15963,7 +15969,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15989,16 +15995,16 @@
         <v>120</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
@@ -16047,7 +16053,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16068,10 +16074,10 @@
         <v>45</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
@@ -16082,7 +16088,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16105,19 +16111,19 @@
         <v>57</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
@@ -16166,7 +16172,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16184,24 +16190,24 @@
         <v>45</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16227,16 +16233,16 @@
         <v>142</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
@@ -16264,10 +16270,10 @@
         <v>79</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>45</v>
@@ -16285,7 +16291,7 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -16294,7 +16300,7 @@
         <v>56</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>45</v>
@@ -16309,7 +16315,7 @@
         <v>99</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
@@ -16320,11 +16326,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16346,16 +16352,16 @@
         <v>142</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>45</v>
@@ -16383,10 +16389,10 @@
         <v>79</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>45</v>
@@ -16404,7 +16410,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -16422,24 +16428,24 @@
         <v>45</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16465,16 +16471,16 @@
         <v>45</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
@@ -16523,7 +16529,7 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -16544,10 +16550,10 @@
         <v>45</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>

--- a/docs/CareConnect-InspiredOxygen-Observation-1.xlsx
+++ b/docs/CareConnect-InspiredOxygen-Observation-1.xlsx
@@ -1967,13 +1967,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1984,22 +1984,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="128.55859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-InspiredOxygen-Observation-1.xlsx
+++ b/docs/CareConnect-InspiredOxygen-Observation-1.xlsx
@@ -1967,13 +1967,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1984,22 +1984,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="128.55859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>
